--- a/Progress Reports/CDC Monthly progress reports/2016/CDC RIF plans - July to December 2016.xlsx
+++ b/Progress Reports/CDC Monthly progress reports/2016/CDC RIF plans - July to December 2016.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17030"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="6640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Task View" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="234">
   <si>
     <t>Details</t>
   </si>
@@ -161,9 +161,6 @@
   </si>
   <si>
     <t>5. Results viewer</t>
-  </si>
-  <si>
-    <t>&lt;ADD list of middleware services required&gt;</t>
   </si>
   <si>
     <t>Integate middleware Taxonomy services</t>
@@ -203,9 +200,6 @@
     <t>&lt;ADD list of middleware services to be ported&gt;</t>
   </si>
   <si>
-    <t>&lt;ADD any middleware services required&gt;</t>
-  </si>
-  <si>
     <t>KG/DM</t>
   </si>
   <si>
@@ -585,9 +579,6 @@
     <t>6.1 Schema comparison (3 days)</t>
   </si>
   <si>
-    <t>6.3 Middleware services - create study (14 days)</t>
-  </si>
-  <si>
     <t>Holiday</t>
   </si>
   <si>
@@ -624,13 +615,7 @@
     <t>2.3 Taxonomy services (4 days)</t>
   </si>
   <si>
-    <t>3.4 Performance scaleability (8 days)</t>
-  </si>
-  <si>
     <t>ALSPAC</t>
-  </si>
-  <si>
-    <t>FINAL INTEGRATION</t>
   </si>
   <si>
     <r>
@@ -688,9 +673,6 @@
     <t>14 each</t>
   </si>
   <si>
-    <t>#</t>
-  </si>
-  <si>
     <t>6.2 SQL server schema completion (5 days)</t>
   </si>
   <si>
@@ -700,24 +682,12 @@
     <t>Shapefile services: 3.3 Get Methods II (6 Days)</t>
   </si>
   <si>
-    <t>Not allocated (for overrun - 9 days)</t>
-  </si>
-  <si>
-    <t>Not allocated (for overrun - 4 days)</t>
-  </si>
-  <si>
     <t>2 days/month minimum management</t>
   </si>
   <si>
-    <t>7. Data Loader (35 days)</t>
-  </si>
-  <si>
     <t>October to December</t>
   </si>
   <si>
-    <t>Not allocated (for overrun - 10 days)</t>
-  </si>
-  <si>
     <t>Not allocated (for overrun - 15 days)</t>
   </si>
   <si>
@@ -733,15 +703,9 @@
     <t>6.3 Middleware services - other (4 days) [Potentially Kevin as well]</t>
   </si>
   <si>
-    <t>6.3 Middleware services - other (10 days) [Potentially Kevin as well]</t>
-  </si>
-  <si>
     <t>8.1 US Test dataset, 8.2 Test Plan, 8.3 Manual calculation of tests</t>
   </si>
   <si>
-    <t>Documentation</t>
-  </si>
-  <si>
     <t>Data Viewer - middleware services (5 days)</t>
   </si>
   <si>
@@ -752,6 +716,60 @@
   </si>
   <si>
     <t>Disease Mapping - m/w services (5 days)</t>
+  </si>
+  <si>
+    <t>October (was August)</t>
+  </si>
+  <si>
+    <t>September (was August)</t>
+  </si>
+  <si>
+    <t>6.3 Study Submission</t>
+  </si>
+  <si>
+    <t>TO BE SCHEDULED</t>
+  </si>
+  <si>
+    <t>6.3 Middleware services - other (10 days) [Potentially Kevin as well]: data viewer get methods</t>
+  </si>
+  <si>
+    <t>Results Viewer (expected 26th September)</t>
+  </si>
+  <si>
+    <t>6.3 Middleware services - create study (14 days) NO PROGRESS DUE TO ILLNESS; Transferred to Peter</t>
+  </si>
+  <si>
+    <t>7. Data Loader (35 days) - start liable for 2/3 weeks delays caused by more work on GET methods</t>
+  </si>
+  <si>
+    <t>Christmas</t>
+  </si>
+  <si>
+    <t>Kev Holiday</t>
+  </si>
+  <si>
+    <t>6.2 SQL server schema completion (as required)</t>
+  </si>
+  <si>
+    <t>Documentation, manual</t>
+  </si>
+  <si>
+    <t>Final Integration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not allocated (for overrun): now 3.4 Performance scaleability (8 days) </t>
+  </si>
+  <si>
+    <t>Not allocated (for overrun - 9 days): now map tile generation</t>
+  </si>
+  <si>
+    <t>Not allocated (for overrun - 10 days): now data viewer get methods</t>
+  </si>
+  <si>
+    <t>Not allocated (for overrun): now data loader</t>
+  </si>
+  <si>
+    <t>SQL Server study submission and data extraction</t>
   </si>
 </sst>
 </file>
@@ -832,7 +850,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -898,9 +916,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -935,9 +950,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -963,16 +975,16 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1330,8 +1342,8 @@
   <dimension ref="A1:L56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1372,7 +1384,7 @@
         <v>28</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>30</v>
@@ -1381,7 +1393,7 @@
         <v>29</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>0</v>
@@ -1420,12 +1432,14 @@
         <v>42594</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="I3" s="8">
         <v>42552</v>
       </c>
-      <c r="J3" s="8"/>
+      <c r="J3" s="8">
+        <v>42587</v>
+      </c>
       <c r="K3" s="8"/>
       <c r="L3" s="7" t="s">
         <v>10</v>
@@ -1469,11 +1483,15 @@
       <c r="H5" s="14">
         <v>1</v>
       </c>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
+      <c r="I5" s="8">
+        <v>42576</v>
+      </c>
+      <c r="J5" s="8">
+        <v>42579</v>
+      </c>
       <c r="K5" s="8"/>
       <c r="L5" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="58" x14ac:dyDescent="0.35">
@@ -1500,8 +1518,13 @@
       <c r="H6" s="14">
         <v>1</v>
       </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
+      <c r="I6" s="8">
+        <f>J5</f>
+        <v>42579</v>
+      </c>
+      <c r="J6" s="8">
+        <v>42570</v>
+      </c>
       <c r="K6" s="6" t="str">
         <f>D5</f>
         <v>2.1 Middleware services planning</v>
@@ -1542,15 +1565,15 @@
     </row>
     <row r="8" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>58</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>60</v>
       </c>
       <c r="F8" s="8">
         <v>42583</v>
@@ -1559,15 +1582,17 @@
         <v>42616</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6" t="s">
-        <v>206</v>
+        <v>200</v>
+      </c>
+      <c r="I8" s="8">
+        <v>42583</v>
+      </c>
+      <c r="J8" s="8">
+        <v>42616</v>
       </c>
       <c r="K8" s="6"/>
-      <c r="L8" s="34" t="s">
-        <v>196</v>
+      <c r="L8" s="33" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
@@ -1628,7 +1653,9 @@
       <c r="I11" s="8">
         <v>42552</v>
       </c>
-      <c r="J11" s="6"/>
+      <c r="J11" s="8">
+        <v>42580</v>
+      </c>
       <c r="K11" s="6"/>
       <c r="L11" s="7" t="s">
         <v>21</v>
@@ -1636,7 +1663,7 @@
     </row>
     <row r="12" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
-        <v>11</v>
+        <v>216</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -1656,8 +1683,13 @@
       <c r="H12" s="14">
         <v>12</v>
       </c>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
+      <c r="I12" s="8">
+        <f>J11</f>
+        <v>42580</v>
+      </c>
+      <c r="J12" s="8">
+        <v>42650</v>
+      </c>
       <c r="K12" s="6" t="str">
         <f>D11</f>
         <v>3.1 Meta data</v>
@@ -1668,7 +1700,7 @@
     </row>
     <row r="13" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
-        <v>13</v>
+        <v>217</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -1688,14 +1720,17 @@
       <c r="H13" s="14">
         <v>12</v>
       </c>
-      <c r="I13" s="6"/>
+      <c r="I13" s="8">
+        <f>J12</f>
+        <v>42650</v>
+      </c>
       <c r="J13" s="6"/>
       <c r="K13" s="6" t="str">
         <f>D12</f>
         <v>3.2 Geospatial outputs</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="29" x14ac:dyDescent="0.35">
@@ -1775,14 +1810,18 @@
       <c r="H17" s="14">
         <v>1</v>
       </c>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
+      <c r="I17" s="8">
+        <v>42210</v>
+      </c>
+      <c r="J17" s="8">
+        <v>42587</v>
+      </c>
       <c r="K17" s="6" t="str">
         <f>D7</f>
         <v>2.3 Taxonomy services</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
@@ -1808,34 +1847,37 @@
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
       <c r="L18" s="7" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
-      <c r="D19" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="E19" s="6"/>
+      <c r="D19" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="14"/>
+      <c r="H19" s="14">
+        <v>15</v>
+      </c>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
-      <c r="L19" s="7"/>
+      <c r="L19" s="7" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
-      <c r="D20" s="25" t="s">
-        <v>182</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>16</v>
+      <c r="D20" s="24" t="s">
+        <v>180</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
@@ -1845,22 +1887,26 @@
       <c r="K20" s="6"/>
       <c r="L20" s="7"/>
     </row>
-    <row r="21" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="24" t="s">
-        <v>47</v>
+      <c r="D21" s="23" t="s">
+        <v>23</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
+      <c r="F21" s="8">
+        <v>42210</v>
+      </c>
+      <c r="G21" s="8">
+        <v>42643</v>
+      </c>
       <c r="H21" s="14"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
@@ -1871,8 +1917,8 @@
       <c r="L21" s="7"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="D22" s="25" t="s">
-        <v>182</v>
+      <c r="D22" s="24" t="s">
+        <v>180</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>16</v>
@@ -1895,7 +1941,7 @@
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
       <c r="L23" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
@@ -1905,10 +1951,10 @@
       <c r="B24" s="6"/>
       <c r="C24" s="12"/>
       <c r="D24" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" s="12" t="s">
         <v>49</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>50</v>
       </c>
       <c r="F24" s="8">
         <v>42552</v>
@@ -1923,7 +1969,7 @@
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
       <c r="L24" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="29" x14ac:dyDescent="0.35">
@@ -1933,10 +1979,10 @@
       <c r="B25" s="6"/>
       <c r="C25" s="12"/>
       <c r="D25" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" s="12" t="s">
         <v>51</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>52</v>
       </c>
       <c r="F25" s="8">
         <v>42625</v>
@@ -1951,7 +1997,7 @@
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
       <c r="L25" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
@@ -1970,11 +2016,11 @@
     </row>
     <row r="27" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="6" t="s">
@@ -1989,7 +2035,7 @@
       <c r="J27" s="6"/>
       <c r="K27" s="12"/>
       <c r="L27" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="29" x14ac:dyDescent="0.35">
@@ -1997,7 +2043,7 @@
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
@@ -2018,7 +2064,7 @@
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
@@ -2039,7 +2085,7 @@
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
@@ -2060,7 +2106,7 @@
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
@@ -2081,7 +2127,7 @@
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
@@ -2112,75 +2158,75 @@
       <c r="L33" s="7"/>
     </row>
     <row r="34" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A34" s="24" t="s">
+      <c r="A34" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="26"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A35" s="23"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="24"/>
-      <c r="C34" s="24" t="s">
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A36" s="23"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="27"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A35" s="24"/>
-      <c r="B35" s="24"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24" t="s">
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="23"/>
+      <c r="L36" s="26"/>
+    </row>
+    <row r="37" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A37" s="23"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="24"/>
-      <c r="J35" s="24"/>
-      <c r="K35" s="24"/>
-      <c r="L35" s="27" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A36" s="24"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24" t="s">
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="23"/>
+      <c r="L37" s="26" t="s">
         <v>69</v>
-      </c>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="24"/>
-      <c r="J36" s="24"/>
-      <c r="K36" s="24"/>
-      <c r="L36" s="27"/>
-    </row>
-    <row r="37" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A37" s="24"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="24"/>
-      <c r="K37" s="24"/>
-      <c r="L37" s="27" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.35">
@@ -2199,7 +2245,7 @@
     </row>
     <row r="39" spans="1:12" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -2232,7 +2278,7 @@
         <v>13</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
@@ -2253,7 +2299,7 @@
         <v>13</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
@@ -2271,10 +2317,10 @@
     </row>
     <row r="43" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
@@ -2292,10 +2338,10 @@
     </row>
     <row r="44" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A44" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
@@ -2492,25 +2538,25 @@
   </sheetPr>
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9:D11"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C25" sqref="C25:G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="39"/>
-    <col min="2" max="2" width="18.81640625" style="40" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="37"/>
+    <col min="2" max="2" width="18.81640625" style="38" customWidth="1"/>
     <col min="3" max="4" width="39.81640625" style="21" customWidth="1"/>
-    <col min="5" max="7" width="39.81640625" style="30" customWidth="1"/>
+    <col min="5" max="7" width="39.81640625" style="29" customWidth="1"/>
     <col min="8" max="8" width="25.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="36" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="20" t="s">
@@ -2519,14 +2565,14 @@
       <c r="D1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="29" t="s">
-        <v>217</v>
+      <c r="G1" s="28" t="s">
+        <v>207</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>20</v>
@@ -2536,520 +2582,562 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="39">
+      <c r="A3" s="37">
         <v>27</v>
       </c>
-      <c r="B3" s="40">
+      <c r="B3" s="38">
         <f>DATE(2016,1,-2)-WEEKDAY(DATE(2016,1,3))+A3*7</f>
         <v>42555</v>
       </c>
-      <c r="C3" s="45" t="s">
-        <v>180</v>
+      <c r="C3" s="41" t="s">
+        <v>178</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="E3" s="30" t="s">
-        <v>193</v>
-      </c>
-      <c r="F3" s="49" t="s">
-        <v>184</v>
-      </c>
-      <c r="G3" s="33"/>
+        <v>195</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="F3" s="47" t="s">
+        <v>182</v>
+      </c>
+      <c r="G3" s="32"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="39">
+      <c r="A4" s="37">
         <f>A3+1</f>
         <v>28</v>
       </c>
-      <c r="B4" s="40">
+      <c r="B4" s="38">
         <f t="shared" ref="B4:B28" si="0">DATE(2016,1,-2)-WEEKDAY(DATE(2016,1,3))+A4*7</f>
         <v>42562</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="E4" s="31" t="s">
-        <v>190</v>
-      </c>
-      <c r="F4" s="49"/>
-      <c r="G4" s="33"/>
+      <c r="C4" s="41"/>
+      <c r="E4" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="F4" s="47"/>
+      <c r="G4" s="32"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="39">
+      <c r="A5" s="37">
         <f t="shared" ref="A5:A28" si="1">A4+1</f>
         <v>29</v>
       </c>
-      <c r="B5" s="40">
+      <c r="B5" s="38">
         <f t="shared" si="0"/>
         <v>42569</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="35" t="s">
-        <v>225</v>
-      </c>
-      <c r="E5" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="F5" s="50" t="s">
-        <v>187</v>
-      </c>
-      <c r="G5" s="33"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="F5" s="48" t="s">
+        <v>184</v>
+      </c>
+      <c r="G5" s="47"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="39">
+      <c r="A6" s="37">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="B6" s="40">
+      <c r="B6" s="38">
         <f t="shared" si="0"/>
         <v>42576</v>
       </c>
-      <c r="C6" s="45"/>
+      <c r="C6" s="41"/>
       <c r="D6" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="42" t="s">
-        <v>227</v>
-      </c>
-      <c r="F6" s="50"/>
-      <c r="G6" s="33"/>
+      <c r="E6" s="40" t="s">
+        <v>215</v>
+      </c>
+      <c r="F6" s="48"/>
+      <c r="G6" s="47"/>
       <c r="H6" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="39">
+      <c r="A7" s="37">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="B7" s="40">
+      <c r="B7" s="38">
         <f t="shared" si="0"/>
         <v>42583</v>
       </c>
-      <c r="C7" s="45" t="s">
-        <v>181</v>
-      </c>
-      <c r="D7" s="45" t="s">
-        <v>184</v>
-      </c>
-      <c r="E7" s="31" t="s">
-        <v>191</v>
-      </c>
-      <c r="F7" s="45" t="s">
-        <v>184</v>
-      </c>
+      <c r="C7" s="41" t="s">
+        <v>179</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>182</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="F7" s="41" t="s">
+        <v>182</v>
+      </c>
+      <c r="G7" s="47"/>
     </row>
     <row r="8" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="39">
+      <c r="A8" s="37">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="B8" s="40">
+      <c r="B8" s="38">
         <f t="shared" si="0"/>
         <v>42590</v>
       </c>
-      <c r="C8" s="45"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="42" t="s">
-        <v>224</v>
-      </c>
-      <c r="F8" s="47"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="40" t="s">
+        <v>212</v>
+      </c>
+      <c r="F8" s="45"/>
+      <c r="G8" s="47"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="39">
+      <c r="A9" s="37">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="B9" s="40">
+      <c r="B9" s="38">
         <f t="shared" si="0"/>
         <v>42597</v>
       </c>
-      <c r="C9" s="41" t="s">
-        <v>187</v>
-      </c>
-      <c r="D9" s="45" t="s">
-        <v>186</v>
-      </c>
-      <c r="E9" s="41" t="s">
-        <v>187</v>
-      </c>
-      <c r="F9" s="50" t="s">
-        <v>187</v>
-      </c>
-      <c r="G9" s="33"/>
+      <c r="C9" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="F9" s="48" t="s">
+        <v>184</v>
+      </c>
+      <c r="G9" s="47"/>
     </row>
     <row r="10" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="39">
+      <c r="A10" s="37">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="B10" s="40">
+      <c r="B10" s="38">
         <f t="shared" si="0"/>
         <v>42604</v>
       </c>
-      <c r="C10" s="28" t="s">
-        <v>219</v>
-      </c>
-      <c r="D10" s="45"/>
-      <c r="E10" s="30" t="s">
-        <v>195</v>
-      </c>
-      <c r="F10" s="50"/>
-      <c r="G10" s="33"/>
+      <c r="C10" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="D10" s="41"/>
+      <c r="E10" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="F10" s="48"/>
+      <c r="G10" s="47"/>
     </row>
     <row r="11" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="39">
+      <c r="A11" s="37">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="B11" s="40">
+      <c r="B11" s="38">
         <f t="shared" si="0"/>
         <v>42611</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="41" t="s">
+        <v>202</v>
+      </c>
+      <c r="D11" s="41"/>
+      <c r="E11" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="G11" s="30" t="s">
         <v>208</v>
       </c>
-      <c r="D11" s="45"/>
-      <c r="E11" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="F11" s="30" t="s">
-        <v>188</v>
-      </c>
-      <c r="G11" s="31" t="s">
-        <v>218</v>
-      </c>
       <c r="H11" s="6" t="s">
-        <v>75</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="39">
+      <c r="A12" s="37">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="B12" s="40">
+      <c r="B12" s="38">
         <f t="shared" si="0"/>
         <v>42618</v>
       </c>
-      <c r="C12" s="46"/>
-      <c r="D12" s="45" t="s">
-        <v>215</v>
-      </c>
-      <c r="E12" s="32" t="s">
-        <v>194</v>
-      </c>
-      <c r="F12" s="48" t="s">
-        <v>222</v>
+      <c r="C12" s="43"/>
+      <c r="D12" s="41" t="s">
+        <v>231</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="F12" s="46" t="s">
+        <v>211</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="39">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="37">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="B13" s="40">
+      <c r="B13" s="38">
         <f t="shared" si="0"/>
         <v>42625</v>
       </c>
-      <c r="C13" s="45" t="s">
-        <v>207</v>
-      </c>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45" t="s">
-        <v>221</v>
-      </c>
-      <c r="F13" s="46"/>
-      <c r="G13" s="45" t="s">
-        <v>207</v>
+      <c r="C13" s="41" t="s">
+        <v>201</v>
+      </c>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41" t="s">
+        <v>220</v>
+      </c>
+      <c r="F13" s="43"/>
+      <c r="G13" s="41" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="39">
+      <c r="A14" s="37">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="B14" s="40">
+      <c r="B14" s="38">
         <f t="shared" si="0"/>
         <v>42632</v>
       </c>
-      <c r="C14" s="45"/>
-      <c r="D14" s="44" t="s">
-        <v>200</v>
-      </c>
-      <c r="E14" s="45"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="45"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="E14" s="41"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="6" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="39">
+      <c r="A15" s="37">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="B15" s="40">
+      <c r="B15" s="38">
         <f t="shared" si="0"/>
         <v>42639</v>
       </c>
-      <c r="C15" s="45" t="s">
-        <v>209</v>
-      </c>
-      <c r="D15" s="45"/>
-      <c r="F15" s="46"/>
+      <c r="C15" s="41" t="s">
+        <v>203</v>
+      </c>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="41"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="39">
+      <c r="A16" s="37">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="B16" s="40">
+      <c r="B16" s="38">
         <f t="shared" si="0"/>
         <v>42646</v>
       </c>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="32" t="s">
-        <v>194</v>
-      </c>
-      <c r="F16" s="46"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="39">
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="F16" s="43"/>
+      <c r="G16" s="41"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="37">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="B17" s="40">
+      <c r="B17" s="38">
         <f t="shared" si="0"/>
         <v>42653</v>
       </c>
-      <c r="C17" s="45" t="s">
-        <v>210</v>
-      </c>
-      <c r="D17" s="45" t="s">
-        <v>213</v>
-      </c>
-      <c r="E17" s="45" t="s">
-        <v>216</v>
-      </c>
-      <c r="F17" s="46"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="39">
+      <c r="C17" s="41" t="s">
+        <v>230</v>
+      </c>
+      <c r="D17" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="E17" s="41" t="s">
+        <v>220</v>
+      </c>
+      <c r="F17" s="43"/>
+      <c r="G17" s="41"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="37">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="B18" s="40">
+      <c r="B18" s="38">
         <f t="shared" si="0"/>
         <v>42660</v>
       </c>
-      <c r="C18" s="45"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="46"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="39">
+      <c r="C18" s="41"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="41"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="37">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="B19" s="40">
+      <c r="B19" s="38">
         <f t="shared" si="0"/>
         <v>42667</v>
       </c>
-      <c r="C19" s="45"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="39">
+      <c r="C19" s="41"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="41"/>
+    </row>
+    <row r="20" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="37">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="B20" s="40">
+      <c r="B20" s="38">
         <f t="shared" si="0"/>
         <v>42674</v>
       </c>
-      <c r="C20" s="45" t="s">
-        <v>199</v>
-      </c>
-      <c r="D20" s="46"/>
-      <c r="E20" s="32" t="s">
-        <v>194</v>
-      </c>
-      <c r="F20" s="46" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="39">
+      <c r="C20" s="41" t="s">
+        <v>233</v>
+      </c>
+      <c r="D20" s="43"/>
+      <c r="E20" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="F20" s="43" t="s">
+        <v>227</v>
+      </c>
+      <c r="G20" s="41"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="37">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="B21" s="40">
+      <c r="B21" s="38">
         <f t="shared" si="0"/>
         <v>42681</v>
       </c>
-      <c r="C21" s="45"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="45" t="s">
-        <v>216</v>
-      </c>
-      <c r="F21" s="47"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" s="39">
+      <c r="C21" s="41"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="41" t="s">
+        <v>206</v>
+      </c>
+      <c r="F21" s="45"/>
+      <c r="G21" s="41"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="37">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="B22" s="40">
+      <c r="B22" s="38">
         <f t="shared" si="0"/>
         <v>42688</v>
       </c>
-      <c r="C22" s="45"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="47"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="39">
+      <c r="C22" s="41"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="41"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="37">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="B23" s="40">
+      <c r="B23" s="38">
         <f t="shared" si="0"/>
         <v>42695</v>
       </c>
-      <c r="C23" s="45"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="47"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" s="39">
+      <c r="C23" s="41"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="41"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="37">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="B24" s="40">
+      <c r="B24" s="38">
         <f t="shared" si="0"/>
         <v>42702</v>
       </c>
-      <c r="C24" s="21" t="s">
-        <v>211</v>
-      </c>
-      <c r="D24" s="46"/>
-      <c r="E24" s="32" t="s">
-        <v>194</v>
-      </c>
-      <c r="F24" s="47"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="39">
+      <c r="C24" s="41"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="F24" s="45"/>
+      <c r="G24" s="41"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" s="37">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="B25" s="40">
+      <c r="B25" s="38">
         <f t="shared" si="0"/>
         <v>42709</v>
       </c>
-      <c r="C25" s="43" t="s">
-        <v>201</v>
-      </c>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="23"/>
+      <c r="C25" s="44" t="s">
+        <v>228</v>
+      </c>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
       <c r="H25" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="39">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="37">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="B26" s="40">
+      <c r="B26" s="38">
         <f t="shared" si="0"/>
         <v>42716</v>
       </c>
-      <c r="C26" s="28" t="s">
-        <v>192</v>
-      </c>
-      <c r="D26" s="28" t="s">
-        <v>192</v>
-      </c>
-      <c r="E26" s="28" t="s">
-        <v>192</v>
+      <c r="C26" s="41" t="s">
+        <v>229</v>
+      </c>
+      <c r="D26" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="E26" s="41" t="s">
+        <v>189</v>
+      </c>
+      <c r="F26" s="41" t="s">
+        <v>189</v>
+      </c>
+      <c r="G26" s="41" t="s">
+        <v>189</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="39">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="37">
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="B27" s="40">
+      <c r="B27" s="38">
         <f t="shared" si="0"/>
         <v>42723</v>
       </c>
-      <c r="D27" s="36"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" s="39">
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="37">
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="B28" s="40">
+      <c r="B28" s="38">
         <f t="shared" si="0"/>
         <v>42730</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" s="39">
+      <c r="C28" s="41" t="s">
+        <v>224</v>
+      </c>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" s="37">
         <v>1</v>
       </c>
-      <c r="B29" s="40">
+      <c r="B29" s="38">
         <f>DATE(2017,1,-2)-WEEKDAY(DATE(2017,1,3))+A29*7</f>
         <v>42737</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D30" s="28"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D30" s="27"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C31" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="D31" s="28"/>
+        <v>204</v>
+      </c>
+      <c r="D31" s="39" t="s">
+        <v>225</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="30">
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="F20:F24"/>
+    <mergeCell ref="F12:F19"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="G13:G24"/>
+    <mergeCell ref="G5:G10"/>
     <mergeCell ref="C3:C6"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="F7:F8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F20:F24"/>
-    <mergeCell ref="F12:F19"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C25:F25"/>
     <mergeCell ref="D14:D16"/>
     <mergeCell ref="D17:D24"/>
     <mergeCell ref="E17:E19"/>
     <mergeCell ref="C17:C19"/>
-    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="C20:C24"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:I28"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="59" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -3079,25 +3167,25 @@
   <sheetData>
     <row r="1" spans="1:7" s="5" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>82</v>
-      </c>
       <c r="D1" s="20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -3111,129 +3199,129 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="D3" s="21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="27" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="27" x14ac:dyDescent="0.35">
       <c r="B9" s="18" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B10" s="18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="40.5" x14ac:dyDescent="0.35">
       <c r="B11" s="18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F11" s="1">
         <v>6</v>
@@ -3244,30 +3332,30 @@
     </row>
     <row r="12" spans="1:7" ht="67.5" x14ac:dyDescent="0.35">
       <c r="B12" s="18" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="54" x14ac:dyDescent="0.35">
       <c r="B13" s="18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F13" s="1">
         <v>5</v>
@@ -3278,16 +3366,16 @@
     </row>
     <row r="14" spans="1:7" ht="27" x14ac:dyDescent="0.35">
       <c r="B14" s="18" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F14" s="1">
         <v>8</v>
@@ -3298,16 +3386,16 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B15" s="18" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F15" s="1">
         <v>1</v>
@@ -3318,16 +3406,16 @@
     </row>
     <row r="16" spans="1:7" ht="27" x14ac:dyDescent="0.35">
       <c r="B16" s="18" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F16" s="1">
         <v>3</v>
@@ -3338,16 +3426,16 @@
     </row>
     <row r="17" spans="1:7" ht="40.5" x14ac:dyDescent="0.35">
       <c r="B17" s="18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F17" s="1">
         <v>2</v>
@@ -3358,44 +3446,44 @@
     </row>
     <row r="18" spans="1:7" ht="54" x14ac:dyDescent="0.35">
       <c r="B18" s="18" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="27" x14ac:dyDescent="0.35">
       <c r="B19" s="18" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="40.5" x14ac:dyDescent="0.35">
       <c r="B20" s="18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F20" s="1">
         <v>1</v>
@@ -3406,16 +3494,16 @@
     </row>
     <row r="21" spans="1:7" ht="40.5" x14ac:dyDescent="0.35">
       <c r="B21" s="18" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F21" s="1">
         <v>5</v>
@@ -3426,16 +3514,16 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B22" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="D22" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="C22" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>107</v>
-      </c>
       <c r="E22" s="21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F22" s="1">
         <v>5</v>
@@ -3451,7 +3539,7 @@
     </row>
     <row r="24" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -3476,109 +3564,109 @@
     </row>
     <row r="26" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="27" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="27" x14ac:dyDescent="0.35">
       <c r="B30" s="18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="27" x14ac:dyDescent="0.35">
       <c r="B31" s="18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="27" x14ac:dyDescent="0.35">
       <c r="B32" s="18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="54" x14ac:dyDescent="0.35">
       <c r="B33" s="18" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F33" s="1">
         <v>1</v>
@@ -3589,16 +3677,16 @@
     </row>
     <row r="34" spans="2:7" ht="54" x14ac:dyDescent="0.35">
       <c r="B34" s="18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F34" s="1">
         <v>5</v>
@@ -3609,16 +3697,16 @@
     </row>
     <row r="35" spans="2:7" ht="40.5" x14ac:dyDescent="0.35">
       <c r="B35" s="18" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F35" s="1">
         <v>2</v>
@@ -3629,16 +3717,16 @@
     </row>
     <row r="36" spans="2:7" ht="40.5" x14ac:dyDescent="0.35">
       <c r="B36" s="18" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F36" s="1">
         <v>9</v>
@@ -3649,16 +3737,16 @@
     </row>
     <row r="37" spans="2:7" ht="27" x14ac:dyDescent="0.35">
       <c r="B37" s="18" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F37" s="1">
         <v>3</v>
@@ -3669,16 +3757,16 @@
     </row>
     <row r="38" spans="2:7" ht="54" x14ac:dyDescent="0.35">
       <c r="B38" s="18" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E38" s="21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F38" s="1">
         <v>5</v>
@@ -3689,16 +3777,16 @@
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B39" s="18" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E39" s="21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F39" s="1">
         <v>1</v>
@@ -3709,16 +3797,16 @@
     </row>
     <row r="40" spans="2:7" ht="54" x14ac:dyDescent="0.35">
       <c r="B40" s="18" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E40" s="21" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F40" s="1">
         <v>6</v>
@@ -3729,16 +3817,16 @@
     </row>
     <row r="41" spans="2:7" ht="27" x14ac:dyDescent="0.35">
       <c r="B41" s="18" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E41" s="21" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F41" s="1">
         <v>3</v>
@@ -3749,16 +3837,16 @@
     </row>
     <row r="42" spans="2:7" ht="27" x14ac:dyDescent="0.35">
       <c r="B42" s="18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E42" s="21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F42" s="1">
         <v>3</v>
@@ -3769,16 +3857,16 @@
     </row>
     <row r="43" spans="2:7" ht="40.5" x14ac:dyDescent="0.35">
       <c r="B43" s="18" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E43" s="21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F43" s="1">
         <v>1</v>
@@ -3789,16 +3877,16 @@
     </row>
     <row r="44" spans="2:7" ht="40.5" x14ac:dyDescent="0.35">
       <c r="B44" s="18" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E44" s="21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F44" s="1">
         <v>1</v>
@@ -3809,16 +3897,16 @@
     </row>
     <row r="45" spans="2:7" ht="40.5" x14ac:dyDescent="0.35">
       <c r="B45" s="18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E45" s="21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F45" s="1">
         <v>1</v>
@@ -3829,16 +3917,16 @@
     </row>
     <row r="46" spans="2:7" ht="27" x14ac:dyDescent="0.35">
       <c r="B46" s="18" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E46" s="21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F46" s="1">
         <v>1</v>
@@ -3849,16 +3937,16 @@
     </row>
     <row r="47" spans="2:7" ht="67.5" x14ac:dyDescent="0.35">
       <c r="B47" s="18" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E47" s="21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F47" s="1">
         <v>3</v>
@@ -3869,16 +3957,16 @@
     </row>
     <row r="48" spans="2:7" ht="40.5" x14ac:dyDescent="0.35">
       <c r="B48" s="18" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D48" s="18" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E48" s="21" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F48" s="1">
         <v>4</v>
@@ -3889,16 +3977,16 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B49" s="18" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D49" s="22" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E49" s="21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F49" s="1">
         <v>1</v>
@@ -3909,7 +3997,7 @@
     </row>
     <row r="51" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>

--- a/Progress Reports/CDC Monthly progress reports/2016/CDC RIF plans - July to December 2016.xlsx
+++ b/Progress Reports/CDC Monthly progress reports/2016/CDC RIF plans - July to December 2016.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="6640" activeTab="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="238">
   <si>
     <t>Details</t>
   </si>
@@ -592,9 +592,6 @@
   </si>
   <si>
     <t>Handover to new GIS person</t>
-  </si>
-  <si>
-    <t>Not allocated (for overrun)</t>
   </si>
   <si>
     <t>Data Viewer</t>
@@ -688,9 +685,6 @@
     <t>October to December</t>
   </si>
   <si>
-    <t>Not allocated (for overrun - 15 days)</t>
-  </si>
-  <si>
     <t>MD</t>
   </si>
   <si>
@@ -754,22 +748,40 @@
     <t>Documentation, manual</t>
   </si>
   <si>
-    <t>Final Integration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not allocated (for overrun): now 3.4 Performance scaleability (8 days) </t>
-  </si>
-  <si>
     <t>Not allocated (for overrun - 9 days): now map tile generation</t>
   </si>
   <si>
     <t>Not allocated (for overrun - 10 days): now data viewer get methods</t>
   </si>
   <si>
-    <t>Not allocated (for overrun): now data loader</t>
-  </si>
-  <si>
     <t>SQL Server study submission and data extraction</t>
+  </si>
+  <si>
+    <t>CDC Visit</t>
+  </si>
+  <si>
+    <t>Java handover, fix submission feature</t>
+  </si>
+  <si>
+    <t>Calling R; end to end; submission feature</t>
+  </si>
+  <si>
+    <t>ALPSAC</t>
+  </si>
+  <si>
+    <t>Disease Mapping</t>
+  </si>
+  <si>
+    <t>SQL Server middleware</t>
+  </si>
+  <si>
+    <t>Reamaining data display methods</t>
+  </si>
+  <si>
+    <t>Unallocated</t>
+  </si>
+  <si>
+    <t>SQL Server tile integration</t>
   </si>
 </sst>
 </file>
@@ -824,7 +836,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -834,6 +846,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -850,7 +868,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -977,26 +995,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1432,7 +1469,7 @@
         <v>42594</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I3" s="8">
         <v>42552</v>
@@ -1491,7 +1528,7 @@
       </c>
       <c r="K5" s="8"/>
       <c r="L5" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="58" x14ac:dyDescent="0.35">
@@ -1582,7 +1619,7 @@
         <v>42616</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I8" s="8">
         <v>42583</v>
@@ -1592,7 +1629,7 @@
       </c>
       <c r="K8" s="6"/>
       <c r="L8" s="33" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
@@ -1663,7 +1700,7 @@
     </row>
     <row r="12" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -1700,7 +1737,7 @@
     </row>
     <row r="13" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -1847,7 +1884,7 @@
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
       <c r="L18" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
@@ -1855,7 +1892,7 @@
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>51</v>
@@ -1869,7 +1906,7 @@
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
       <c r="L19" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
@@ -2016,7 +2053,7 @@
     </row>
     <row r="27" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="6" t="s">
@@ -2035,7 +2072,7 @@
       <c r="J27" s="6"/>
       <c r="K27" s="12"/>
       <c r="L27" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="29" x14ac:dyDescent="0.35">
@@ -2043,7 +2080,7 @@
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
@@ -2536,11 +2573,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C25" sqref="C25:G25"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C24" sqref="C24:C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2572,7 +2609,7 @@
         <v>17</v>
       </c>
       <c r="G1" s="28" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>20</v>
@@ -2589,16 +2626,16 @@
         <f>DATE(2016,1,-2)-WEEKDAY(DATE(2016,1,3))+A3*7</f>
         <v>42555</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="44" t="s">
         <v>178</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>190</v>
-      </c>
-      <c r="F3" s="47" t="s">
+        <v>189</v>
+      </c>
+      <c r="F3" s="48" t="s">
         <v>182</v>
       </c>
       <c r="G3" s="32"/>
@@ -2612,11 +2649,11 @@
         <f t="shared" ref="B4:B28" si="0">DATE(2016,1,-2)-WEEKDAY(DATE(2016,1,3))+A4*7</f>
         <v>42562</v>
       </c>
-      <c r="C4" s="41"/>
+      <c r="C4" s="44"/>
       <c r="E4" s="30" t="s">
         <v>187</v>
       </c>
-      <c r="F4" s="47"/>
+      <c r="F4" s="48"/>
       <c r="G4" s="32"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -2628,17 +2665,17 @@
         <f t="shared" si="0"/>
         <v>42569</v>
       </c>
-      <c r="C5" s="41"/>
+      <c r="C5" s="44"/>
       <c r="D5" s="34" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E5" s="30" t="s">
         <v>186</v>
       </c>
-      <c r="F5" s="48" t="s">
+      <c r="F5" s="49" t="s">
         <v>184</v>
       </c>
-      <c r="G5" s="47"/>
+      <c r="G5" s="48"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="37">
@@ -2649,15 +2686,15 @@
         <f t="shared" si="0"/>
         <v>42576</v>
       </c>
-      <c r="C6" s="41"/>
+      <c r="C6" s="44"/>
       <c r="D6" s="21" t="s">
         <v>27</v>
       </c>
       <c r="E6" s="40" t="s">
-        <v>215</v>
-      </c>
-      <c r="F6" s="48"/>
-      <c r="G6" s="47"/>
+        <v>213</v>
+      </c>
+      <c r="F6" s="49"/>
+      <c r="G6" s="48"/>
       <c r="H6" s="6" t="s">
         <v>74</v>
       </c>
@@ -2671,19 +2708,19 @@
         <f t="shared" si="0"/>
         <v>42583</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="44" t="s">
         <v>179</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="44" t="s">
         <v>182</v>
       </c>
       <c r="E7" s="30" t="s">
         <v>188</v>
       </c>
-      <c r="F7" s="41" t="s">
+      <c r="F7" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="G7" s="47"/>
+      <c r="G7" s="48"/>
     </row>
     <row r="8" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="37">
@@ -2694,13 +2731,13 @@
         <f t="shared" si="0"/>
         <v>42590</v>
       </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="43"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="45"/>
       <c r="E8" s="40" t="s">
-        <v>212</v>
-      </c>
-      <c r="F8" s="45"/>
-      <c r="G8" s="47"/>
+        <v>210</v>
+      </c>
+      <c r="F8" s="46"/>
+      <c r="G8" s="48"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="37">
@@ -2714,16 +2751,16 @@
       <c r="C9" s="39" t="s">
         <v>184</v>
       </c>
-      <c r="D9" s="41" t="s">
-        <v>222</v>
+      <c r="D9" s="44" t="s">
+        <v>220</v>
       </c>
       <c r="E9" s="39" t="s">
         <v>184</v>
       </c>
-      <c r="F9" s="48" t="s">
+      <c r="F9" s="49" t="s">
         <v>184</v>
       </c>
-      <c r="G9" s="47"/>
+      <c r="G9" s="48"/>
     </row>
     <row r="10" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="37">
@@ -2735,14 +2772,14 @@
         <v>42604</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>209</v>
-      </c>
-      <c r="D10" s="41"/>
+        <v>207</v>
+      </c>
+      <c r="D10" s="44"/>
       <c r="E10" s="29" t="s">
-        <v>192</v>
-      </c>
-      <c r="F10" s="48"/>
-      <c r="G10" s="47"/>
+        <v>191</v>
+      </c>
+      <c r="F10" s="49"/>
+      <c r="G10" s="48"/>
     </row>
     <row r="11" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="37">
@@ -2753,21 +2790,21 @@
         <f t="shared" si="0"/>
         <v>42611</v>
       </c>
-      <c r="C11" s="41" t="s">
-        <v>202</v>
-      </c>
-      <c r="D11" s="41"/>
+      <c r="C11" s="44" t="s">
+        <v>201</v>
+      </c>
+      <c r="D11" s="44"/>
       <c r="E11" s="27" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F11" s="29" t="s">
         <v>185</v>
       </c>
       <c r="G11" s="30" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
@@ -2779,15 +2816,15 @@
         <f t="shared" si="0"/>
         <v>42618</v>
       </c>
-      <c r="C12" s="43"/>
-      <c r="D12" s="41" t="s">
-        <v>231</v>
+      <c r="C12" s="45"/>
+      <c r="D12" s="44" t="s">
+        <v>227</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>191</v>
-      </c>
-      <c r="F12" s="46" t="s">
-        <v>211</v>
+        <v>190</v>
+      </c>
+      <c r="F12" s="47" t="s">
+        <v>209</v>
       </c>
       <c r="G12" s="21" t="s">
         <v>183</v>
@@ -2802,16 +2839,16 @@
         <f t="shared" si="0"/>
         <v>42625</v>
       </c>
-      <c r="C13" s="41" t="s">
-        <v>201</v>
-      </c>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41" t="s">
-        <v>220</v>
-      </c>
-      <c r="F13" s="43"/>
-      <c r="G13" s="41" t="s">
-        <v>226</v>
+      <c r="C13" s="44" t="s">
+        <v>200</v>
+      </c>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44" t="s">
+        <v>218</v>
+      </c>
+      <c r="F13" s="45"/>
+      <c r="G13" s="44" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
@@ -2823,13 +2860,13 @@
         <f t="shared" si="0"/>
         <v>42632</v>
       </c>
-      <c r="C14" s="41"/>
-      <c r="D14" s="42" t="s">
-        <v>196</v>
-      </c>
-      <c r="E14" s="41"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="41"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="50" t="s">
+        <v>195</v>
+      </c>
+      <c r="E14" s="44"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="44"/>
       <c r="H14" s="6" t="s">
         <v>73</v>
       </c>
@@ -2843,13 +2880,13 @@
         <f t="shared" si="0"/>
         <v>42639</v>
       </c>
-      <c r="C15" s="41" t="s">
-        <v>203</v>
-      </c>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="41"/>
+      <c r="C15" s="44" t="s">
+        <v>202</v>
+      </c>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="44"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="37">
@@ -2860,13 +2897,15 @@
         <f t="shared" si="0"/>
         <v>42646</v>
       </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44" t="s">
+        <v>231</v>
+      </c>
       <c r="E16" s="31" t="s">
-        <v>191</v>
-      </c>
-      <c r="F16" s="43"/>
-      <c r="G16" s="41"/>
+        <v>190</v>
+      </c>
+      <c r="F16" s="45"/>
+      <c r="G16" s="44"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="37">
@@ -2877,17 +2916,15 @@
         <f t="shared" si="0"/>
         <v>42653</v>
       </c>
-      <c r="C17" s="41" t="s">
-        <v>230</v>
-      </c>
-      <c r="D17" s="41" t="s">
-        <v>223</v>
-      </c>
-      <c r="E17" s="41" t="s">
-        <v>220</v>
-      </c>
-      <c r="F17" s="43"/>
-      <c r="G17" s="41"/>
+      <c r="C17" s="44" t="s">
+        <v>226</v>
+      </c>
+      <c r="D17" s="45"/>
+      <c r="E17" s="44" t="s">
+        <v>218</v>
+      </c>
+      <c r="F17" s="45"/>
+      <c r="G17" s="44"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="37">
@@ -2898,11 +2935,11 @@
         <f t="shared" si="0"/>
         <v>42660</v>
       </c>
-      <c r="C18" s="41"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="41"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="44"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="37">
@@ -2913,11 +2950,11 @@
         <f t="shared" si="0"/>
         <v>42667</v>
       </c>
-      <c r="C19" s="41"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="41"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="44"/>
     </row>
     <row r="20" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="37">
@@ -2928,17 +2965,15 @@
         <f t="shared" si="0"/>
         <v>42674</v>
       </c>
-      <c r="C20" s="41" t="s">
-        <v>233</v>
-      </c>
-      <c r="D20" s="43"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="39" t="s">
+        <v>232</v>
+      </c>
       <c r="E20" s="31" t="s">
-        <v>191</v>
-      </c>
-      <c r="F20" s="43" t="s">
-        <v>227</v>
-      </c>
-      <c r="G20" s="41"/>
+        <v>190</v>
+      </c>
+      <c r="F20" s="46"/>
+      <c r="G20" s="44"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="37">
@@ -2949,13 +2984,15 @@
         <f t="shared" si="0"/>
         <v>42681</v>
       </c>
-      <c r="C21" s="41"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="41" t="s">
-        <v>206</v>
-      </c>
-      <c r="F21" s="45"/>
-      <c r="G21" s="41"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="41" t="s">
+        <v>230</v>
+      </c>
+      <c r="E21" s="44" t="s">
+        <v>233</v>
+      </c>
+      <c r="F21" s="46"/>
+      <c r="G21" s="44"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="37">
@@ -2966,11 +3003,13 @@
         <f t="shared" si="0"/>
         <v>42688</v>
       </c>
-      <c r="C22" s="41"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="41"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="E22" s="44"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="44"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="37">
@@ -2981,11 +3020,13 @@
         <f t="shared" si="0"/>
         <v>42695</v>
       </c>
-      <c r="C23" s="41"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="41"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="41" t="s">
+        <v>230</v>
+      </c>
+      <c r="E23" s="45"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="44"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="37">
@@ -2996,13 +3037,17 @@
         <f t="shared" si="0"/>
         <v>42702</v>
       </c>
-      <c r="C24" s="41"/>
-      <c r="D24" s="43"/>
+      <c r="C24" s="44" t="s">
+        <v>237</v>
+      </c>
+      <c r="D24" s="44" t="s">
+        <v>221</v>
+      </c>
       <c r="E24" s="31" t="s">
-        <v>191</v>
-      </c>
-      <c r="F24" s="45"/>
-      <c r="G24" s="41"/>
+        <v>190</v>
+      </c>
+      <c r="F24" s="46"/>
+      <c r="G24" s="44"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="37">
@@ -3013,13 +3058,15 @@
         <f t="shared" si="0"/>
         <v>42709</v>
       </c>
-      <c r="C25" s="44" t="s">
-        <v>228</v>
-      </c>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="48" t="s">
+        <v>235</v>
+      </c>
+      <c r="F25" s="46"/>
+      <c r="G25" s="48" t="s">
+        <v>234</v>
+      </c>
       <c r="H25" s="6" t="s">
         <v>72</v>
       </c>
@@ -3033,21 +3080,11 @@
         <f t="shared" si="0"/>
         <v>42716</v>
       </c>
-      <c r="C26" s="41" t="s">
-        <v>229</v>
-      </c>
-      <c r="D26" s="41" t="s">
-        <v>232</v>
-      </c>
-      <c r="E26" s="41" t="s">
-        <v>189</v>
-      </c>
-      <c r="F26" s="41" t="s">
-        <v>189</v>
-      </c>
-      <c r="G26" s="41" t="s">
-        <v>189</v>
-      </c>
+      <c r="C26" s="44"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="48"/>
       <c r="H26" s="6" t="s">
         <v>71</v>
       </c>
@@ -3061,11 +3098,13 @@
         <f t="shared" si="0"/>
         <v>42723</v>
       </c>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
+      <c r="C27" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="D27" s="45"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="48"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="37">
@@ -3076,17 +3115,17 @@
         <f t="shared" si="0"/>
         <v>42730</v>
       </c>
-      <c r="C28" s="41" t="s">
-        <v>224</v>
-      </c>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C28" s="53" t="s">
+        <v>222</v>
+      </c>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="53"/>
+    </row>
+    <row r="29" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="37">
         <v>1</v>
       </c>
@@ -3094,28 +3133,159 @@
         <f>DATE(2017,1,-2)-WEEKDAY(DATE(2017,1,3))+A29*7</f>
         <v>42737</v>
       </c>
+      <c r="C29" s="44" t="s">
+        <v>228</v>
+      </c>
+      <c r="D29" s="44" t="s">
+        <v>221</v>
+      </c>
+      <c r="E29" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="F29" s="45" t="s">
+        <v>225</v>
+      </c>
+      <c r="G29" s="48" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D30" s="27"/>
+      <c r="A30" s="37">
+        <v>2</v>
+      </c>
+      <c r="B30" s="38">
+        <f>DATE(2017,1,-2)-WEEKDAY(DATE(2017,1,3))+A30*7</f>
+        <v>42744</v>
+      </c>
+      <c r="C30" s="44"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="48"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="C31" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="D31" s="39" t="s">
-        <v>225</v>
+      <c r="A31" s="37">
+        <v>3</v>
+      </c>
+      <c r="B31" s="38">
+        <f>DATE(2017,1,-2)-WEEKDAY(DATE(2017,1,3))+A31*7</f>
+        <v>42751</v>
+      </c>
+      <c r="C31" s="44"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="48"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" s="37">
+        <v>4</v>
+      </c>
+      <c r="B32" s="38">
+        <f>DATE(2017,1,-2)-WEEKDAY(DATE(2017,1,3))+A32*7</f>
+        <v>42758</v>
+      </c>
+      <c r="C32" s="44"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="54"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="37">
+        <v>5</v>
+      </c>
+      <c r="B33" s="38">
+        <f>DATE(2017,1,-2)-WEEKDAY(DATE(2017,1,3))+A33*7</f>
+        <v>42765</v>
+      </c>
+      <c r="C33" s="44"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="54"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" s="37">
+        <v>6</v>
+      </c>
+      <c r="B34" s="38">
+        <f>DATE(2017,1,-2)-WEEKDAY(DATE(2017,1,3))+A34*7</f>
+        <v>42772</v>
+      </c>
+      <c r="C34" s="51" t="s">
+        <v>229</v>
+      </c>
+      <c r="D34" s="52"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="52"/>
+      <c r="G34" s="52"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="37">
+        <v>7</v>
+      </c>
+      <c r="B35" s="38">
+        <f>DATE(2017,1,-2)-WEEKDAY(DATE(2017,1,3))+A35*7</f>
+        <v>42779</v>
+      </c>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" s="37">
+        <v>8</v>
+      </c>
+      <c r="B36" s="38">
+        <f>DATE(2017,1,-2)-WEEKDAY(DATE(2017,1,3))+A36*7</f>
+        <v>42786</v>
+      </c>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D37" s="27"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C38" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="D38" s="39" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="32">
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="C17:C23"/>
+    <mergeCell ref="F12:F27"/>
+    <mergeCell ref="G25:G27"/>
+    <mergeCell ref="G29:G33"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="E29:E33"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="C28:I28"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="E17:E19"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="D9:D11"/>
-    <mergeCell ref="C25:G25"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="E21:E23"/>
     <mergeCell ref="C7:C8"/>
-    <mergeCell ref="F20:F24"/>
-    <mergeCell ref="F12:F19"/>
+    <mergeCell ref="F29:F33"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="C11:C12"/>
@@ -3124,20 +3294,6 @@
     <mergeCell ref="C3:C6"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="D17:D24"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="C20:C24"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C28:I28"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="59" fitToHeight="0" orientation="landscape" r:id="rId1"/>
